--- a/biology/Biochimie/Rhodanèse/Rhodanèse.xlsx
+++ b/biology/Biochimie/Rhodanèse/Rhodanèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rhodan%C3%A8se</t>
+          <t>Rhodanèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La rhodanèse, également appelée rhodanase et thiosulfate sulfurtransférase (TST), est une transférase qui catalyse la réaction :
 S2O32− + CN−  
         ⇌
     {\displaystyle \rightleftharpoons }
   SO32− + SCN−.
-Cette enzyme mitochondriale intervient dans la détoxication du cyanure[2]. La réaction se produit en deux étapes, représentées sur le schéma ci-dessous :
+Cette enzyme mitochondriale intervient dans la détoxication du cyanure. La réaction se produit en deux étapes, représentées sur le schéma ci-dessous :
 le thiosulfate S2O32− réagit avec le groupe thiol du résidu Cys-247 (1) pour former un disulfure (2) en libérant un ion sulfite SO32− ;
 le disulfure –S–SH réagit avec le cyanure CN− pour former le thiocyanate SCN− en redonnant le thiol –SH initial.</t>
         </is>
